--- a/Case Study 1.xlsx
+++ b/Case Study 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\JL Week Something\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\JL Week 30\EA_tothegame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C3086-CCB3-4EFA-864A-963F20BECCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE03374-5727-4E14-969D-9ED6BD1C1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$20</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$13</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$D$19</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$D$4</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Investment</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Logic Cells</t>
+  </si>
+  <si>
+    <t>Spend Limit</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,118 +457,115 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -861,229 +860,235 @@
     <col min="1" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="16">
         <v>15.4</v>
       </c>
-      <c r="D3" s="4">
-        <v>26999.999999999996</v>
-      </c>
-      <c r="F3" s="27">
+      <c r="D3" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F3" s="20">
         <f>SUMPRODUCT((C3/100),D3)</f>
-        <v>4157.9999999999991</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>19.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9000</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F8" si="0">SUMPRODUCT((C4/100),D4)</f>
         <v>1728</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>18.7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>36000</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>6732</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>13.5</v>
       </c>
-      <c r="D6" s="4">
-        <v>8999.9999999999945</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="D6" s="3">
+        <v>8999.9999999999982</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>1214.9999999999993</v>
+        <v>1214.9999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>17.8</v>
       </c>
-      <c r="D7" s="4">
-        <v>8999.9999999999927</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="D7" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>1601.9999999999989</v>
+        <v>1602.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <v>16.3</v>
       </c>
-      <c r="D8" s="4">
-        <v>9.430287816380325E-13</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>1.537136914069993E-13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>90000</v>
       </c>
-      <c r="D10" s="28">
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM(F3:F8)</f>
+        <v>15435</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="21">
+        <f>SUM(D3:D4)</f>
+        <v>36000</v>
+      </c>
+      <c r="E13" s="22">
+        <f>SUM(D5:D6)</f>
+        <v>45000</v>
+      </c>
+      <c r="F13" s="23">
+        <f>C10*0.5</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24">
+        <f>SUM(D3:D4)*0.8</f>
+        <v>28800</v>
+      </c>
+      <c r="E14" s="25">
+        <f>SUM(D5:D6)*0.8</f>
+        <v>36000</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24">
+        <f>C10*0.1</f>
+        <v>9000</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24">
+        <f>SUMPRODUCT(SUM(D3:D4), 0.25)</f>
+        <v>9000</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="24">
+        <f>SUM(D7:D8)</f>
+        <v>9000</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="38">
         <f>SUM(D3:D8)</f>
         <v>90000</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
-        <f>SUM(F3:F8)</f>
-        <v>15434.999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="32">
-        <f>SUM(D3:D4)</f>
-        <v>36000</v>
-      </c>
-      <c r="E13" s="33">
-        <f>SUM(D5:D6)</f>
-        <v>44999.999999999993</v>
-      </c>
-      <c r="F13" s="34">
-        <f>C10*0.5</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="35">
-        <f>SUM(D3:D4)*0.8</f>
-        <v>28800</v>
-      </c>
-      <c r="E14" s="36">
-        <f>SUM(D5:D6)*0.8</f>
-        <v>35999.999999999993</v>
-      </c>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="35">
-        <f>C10*0.1</f>
-        <v>9000</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="35">
-        <f>SUMPRODUCT(SUM(D3:D4), 0.25)</f>
-        <v>9000</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="38">
-        <f>SUM(D7:D8)</f>
-        <v>8999.9999999999945</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B18:C19"/>

--- a/Case Study 1.xlsx
+++ b/Case Study 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\JL Week 30\EA_tothegame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\JL SID2213276\JL Post Easter\EA_tothegame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE03374-5727-4E14-969D-9ED6BD1C1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A6F44-EA47-4E8E-8C52-B45DBFE0A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,6 +532,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -541,15 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,15 +563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,21 +984,21 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="21">
         <f>SUM(D3:D4)</f>
         <v>36000</v>
@@ -1016,10 +1013,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="24">
         <f>SUM(D3:D4)*0.8</f>
         <v>28800</v>
@@ -1031,16 +1028,16 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="9"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="24">
         <f>C10*0.1</f>
         <v>9000</v>
@@ -1048,16 +1045,16 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="9"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="24">
         <f>SUMPRODUCT(SUM(D3:D4), 0.25)</f>
         <v>9000</v>
@@ -1065,21 +1062,20 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="24">
         <f>SUM(D7:D8)</f>
         <v>9000</v>
       </c>
-      <c r="E19" s="39"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="38">
+      <c r="C20" s="30"/>
+      <c r="D20" s="28">
         <f>SUM(D3:D8)</f>
         <v>90000</v>
       </c>
